--- a/results/MVSE/aminer/MVSE_aminer<l03><WH>86.23.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l03><WH>86.23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -632,26 +632,26 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>85.90000000000001</v>
+        <v>86.03</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_28_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_59_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -702,23 +702,23 @@
         <v>0.15</v>
       </c>
       <c r="N4" t="n">
-        <v>85.73</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_25_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_12_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -766,26 +766,26 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>85.72</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-01_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_28_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
@@ -833,26 +833,26 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="N6" t="n">
-        <v>85.52</v>
+        <v>85.84</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="P6" t="n">
-        <v>0.53</v>
+        <v>0.28</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_19_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_11_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -900,26 +900,26 @@
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="N7" t="n">
-        <v>85.20999999999999</v>
+        <v>85.84</v>
       </c>
       <c r="O7" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="P7" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_25_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-21_46_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -938,14 +938,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -961,32 +961,32 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="N8" t="n">
-        <v>84.84999999999999</v>
+        <v>85.73</v>
       </c>
       <c r="O8" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-16_19_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_25_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="N9" t="n">
-        <v>84.84</v>
+        <v>85.72</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="P9" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_19_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-01_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1072,14 +1072,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1101,26 +1101,26 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="N10" t="n">
-        <v>84.83</v>
+        <v>85.52</v>
       </c>
       <c r="O10" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="P10" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_24_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_19_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1168,26 +1168,26 @@
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="N11" t="n">
-        <v>84.76000000000001</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-01_57_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-22_34_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1229,32 +1229,32 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="N12" t="n">
-        <v>84.69</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-15_56_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_25_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
         <v>50</v>
@@ -1302,18 +1302,420 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>0.58</v>
       </c>
       <c r="N13" t="n">
-        <v>84.16</v>
+        <v>85.12</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
       </c>
       <c r="P13" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-23_21_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N14" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-16_19_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>128</v>
+      </c>
+      <c r="G15" t="n">
+        <v>200</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N15" t="n">
+        <v>84.84</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_19_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>128</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_24_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>128</v>
+      </c>
+      <c r="G17" t="n">
+        <v>500</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N17" t="n">
+        <v>84.76000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-01_57_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>128</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-15_56_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>128</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P19" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-15_09_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
